--- a/docs/网格旋转.xlsx
+++ b/docs/网格旋转.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE9763B-5FCC-4E7D-9D4A-CBBE15E67ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7904E3A3-27ED-4169-9AEF-0E03FFDEEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20B5219E-C41C-4C94-8618-120C1BA52DF1}"/>
+    <workbookView xWindow="15" yWindow="1635" windowWidth="12060" windowHeight="11295" xr2:uid="{20B5219E-C41C-4C94-8618-120C1BA52DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>10,20</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>22,38</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+  </si>
+  <si>
+    <t>1,1.5</t>
+  </si>
+  <si>
+    <t>0.3,0.3</t>
+  </si>
+  <si>
+    <t>0.3,0.6</t>
+  </si>
+  <si>
+    <t>2.1,2.9</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,16 +107,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,15 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30500C6-6B1D-48F6-8071-220A5F328C2E}">
-  <dimension ref="I5:AH17"/>
+  <dimension ref="C5:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="5.7109375" style="1"/>
+    <col min="1" max="11" width="5.7109375" style="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="9:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,7 +794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="9:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="1">
         <v>20</v>
       </c>
@@ -668,6 +821,18 @@
       <c r="N14" s="1">
         <v>18</v>
       </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <v>36</v>
+      </c>
+      <c r="W14" s="4">
+        <v>37</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="9:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="1">
@@ -688,6 +853,22 @@
       <c r="N15" s="1">
         <v>19</v>
       </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7">
+        <v>35</v>
+      </c>
+      <c r="V15" s="7">
+        <v>21</v>
+      </c>
+      <c r="W15" s="7">
+        <v>22</v>
+      </c>
+      <c r="X15" s="7">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="9:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="1">
@@ -702,8 +883,30 @@
       <c r="L16" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="9:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="6">
+        <v>47</v>
+      </c>
+      <c r="T16" s="7">
+        <v>34</v>
+      </c>
+      <c r="U16" s="7">
+        <v>20</v>
+      </c>
+      <c r="V16" s="7">
+        <v>10</v>
+      </c>
+      <c r="W16" s="7">
+        <v>11</v>
+      </c>
+      <c r="X16" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="1">
         <v>22</v>
       </c>
@@ -716,8 +919,382 @@
       <c r="L17" s="1">
         <v>13</v>
       </c>
+      <c r="R17" s="1">
+        <v>46</v>
+      </c>
+      <c r="S17" s="6">
+        <v>33</v>
+      </c>
+      <c r="T17" s="7">
+        <v>19</v>
+      </c>
+      <c r="U17" s="7">
+        <v>9</v>
+      </c>
+      <c r="V17" s="7">
+        <v>3</v>
+      </c>
+      <c r="W17" s="7">
+        <v>4</v>
+      </c>
+      <c r="X17" s="7">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>46</v>
+      </c>
+      <c r="S18" s="6">
+        <v>32</v>
+      </c>
+      <c r="T18" s="7">
+        <v>18</v>
+      </c>
+      <c r="U18" s="7">
+        <v>8</v>
+      </c>
+      <c r="V18" s="7">
+        <v>2</v>
+      </c>
+      <c r="W18" s="7">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="6">
+        <v>46</v>
+      </c>
+      <c r="T19" s="7">
+        <v>31</v>
+      </c>
+      <c r="U19" s="7">
+        <v>17</v>
+      </c>
+      <c r="V19" s="7">
+        <v>7</v>
+      </c>
+      <c r="W19" s="7">
+        <v>6</v>
+      </c>
+      <c r="X19" s="7">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="6"/>
+      <c r="T20" s="7">
+        <v>45</v>
+      </c>
+      <c r="U20" s="7">
+        <v>30</v>
+      </c>
+      <c r="V20" s="7">
+        <v>16</v>
+      </c>
+      <c r="W20" s="7">
+        <v>15</v>
+      </c>
+      <c r="X20" s="7">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="3:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10">
+        <v>44</v>
+      </c>
+      <c r="V21" s="10">
+        <v>29</v>
+      </c>
+      <c r="W21" s="10">
+        <v>28</v>
+      </c>
+      <c r="X21" s="10">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="V22" s="1">
+        <v>43</v>
+      </c>
+      <c r="W22" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="M24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="M25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="M26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="M27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="M28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="31" spans="3:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="L33" s="12">
+        <f>1 / 20</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="L34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7">
+        <v>2</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="L35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="L36" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+      <c r="O37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="O38" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/网格旋转.xlsx
+++ b/docs/网格旋转.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7904E3A3-27ED-4169-9AEF-0E03FFDEEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD47FC-F413-41FA-9B95-C0EAA893EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1635" windowWidth="12060" windowHeight="11295" xr2:uid="{20B5219E-C41C-4C94-8618-120C1BA52DF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20B5219E-C41C-4C94-8618-120C1BA52DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>5,5</t>
   </si>
@@ -71,15 +71,31 @@
   <si>
     <t>2.1,2.9</t>
   </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>2,45</t>
+  </si>
+  <si>
+    <t>3,30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +243,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30500C6-6B1D-48F6-8071-220A5F328C2E}">
-  <dimension ref="C5:AH38"/>
+  <dimension ref="C5:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1207,7 @@
       </c>
     </row>
     <row r="32" spans="3:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>1</v>
       </c>
@@ -1200,7 +1222,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>2</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>3</v>
       </c>
@@ -1245,8 +1267,17 @@
       <c r="P35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>4</v>
       </c>
@@ -1264,8 +1295,23 @@
       <c r="O36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>5</v>
       </c>
@@ -1278,8 +1324,21 @@
       <c r="O37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="3:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>6</v>
       </c>
@@ -1292,6 +1351,99 @@
       <c r="O38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="X38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1">
+        <v>3</v>
+      </c>
+      <c r="W42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="V43" s="1">
+        <f>SQRT(5)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="W43" s="1">
+        <f>SQRT(8)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="X43" s="1">
+        <f>SQRT(13)</f>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="44" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T44" s="1">
+        <v>90</v>
+      </c>
+      <c r="U44" s="1">
+        <v>45</v>
+      </c>
+      <c r="V44" s="1">
+        <v>30</v>
+      </c>
+      <c r="W44" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>45</v>
+      </c>
+      <c r="V45" s="1">
+        <v>30</v>
+      </c>
+      <c r="W45" s="1">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
